--- a/UEFA_ranking_accounts.xlsx
+++ b/UEFA_ranking_accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{AC09A74B-073D-45A4-A798-BC5B32252B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B23DC98A-DD6B-4909-8A20-719218957FD9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{AC09A74B-073D-45A4-A798-BC5B32252B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95F655A6-F477-41EC-BB73-908687168DCE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{838ADFDF-57B9-48F4-B209-9EC8026958B8}"/>
+    <workbookView xWindow="3504" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{838ADFDF-57B9-48F4-B209-9EC8026958B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>AUT</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>cyprusfooty</t>
+  </si>
+  <si>
+    <t>DanishFooty</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78486CC4-C569-4277-A29C-7E684115B6C9}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +499,7 @@
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -515,7 +518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -523,7 +526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -531,7 +534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -539,7 +542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -547,7 +550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -555,7 +558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -563,7 +566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -574,7 +577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -582,7 +585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -590,7 +593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -598,7 +601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -606,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -616,8 +619,11 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -625,7 +631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>

--- a/UEFA_ranking_accounts.xlsx
+++ b/UEFA_ranking_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{AC09A74B-073D-45A4-A798-BC5B32252B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95F655A6-F477-41EC-BB73-908687168DCE}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{AC09A74B-073D-45A4-A798-BC5B32252B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E7A6DF-A3E4-49B6-9147-89CD6B059E72}"/>
   <bookViews>
     <workbookView xWindow="3504" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{838ADFDF-57B9-48F4-B209-9EC8026958B8}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>BelgianPodcast</t>
   </si>
   <si>
-    <t>Turkish_Fotbol1</t>
-  </si>
-  <si>
     <t>footballinDK</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>DanishFooty</t>
+  </si>
+  <si>
+    <t>Turkish_Futbol1</t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78486CC4-C569-4277-A29C-7E684115B6C9}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -617,10 +617,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">

--- a/UEFA_ranking_accounts.xlsx
+++ b/UEFA_ranking_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{AC09A74B-073D-45A4-A798-BC5B32252B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E7A6DF-A3E4-49B6-9147-89CD6B059E72}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{AC09A74B-073D-45A4-A798-BC5B32252B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D766118-784E-4194-AC14-27902495AB53}"/>
   <bookViews>
-    <workbookView xWindow="3504" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{838ADFDF-57B9-48F4-B209-9EC8026958B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{838ADFDF-57B9-48F4-B209-9EC8026958B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>AUT</t>
   </si>
@@ -136,13 +136,67 @@
   </si>
   <si>
     <t>Turkish_Futbol1</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>NICoefficient</t>
+  </si>
+  <si>
+    <t>GibCoefficient</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>NED</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>uefacoef</t>
+  </si>
+  <si>
+    <t>CheatSheetGuy</t>
+  </si>
+  <si>
+    <t>slovak_football</t>
+  </si>
+  <si>
+    <t>EscapeToSuomi</t>
+  </si>
+  <si>
+    <t>FutbolBaltico</t>
+  </si>
+  <si>
+    <t>FaeroskFodbold</t>
+  </si>
+  <si>
+    <t>kosovvanfooty_EN</t>
+  </si>
+  <si>
+    <t>AlbanianFooty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +204,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,8 +239,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,159 +557,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78486CC4-C569-4277-A29C-7E684115B6C9}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.5546875" style="2"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UEFA_ranking_accounts.xlsx
+++ b/UEFA_ranking_accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{AC09A74B-073D-45A4-A798-BC5B32252B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D766118-784E-4194-AC14-27902495AB53}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{AC09A74B-073D-45A4-A798-BC5B32252B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48BEA345-215E-4220-BC6A-54706D97BFEA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{838ADFDF-57B9-48F4-B209-9EC8026958B8}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{838ADFDF-57B9-48F4-B209-9EC8026958B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>AUT</t>
   </si>
@@ -190,6 +190,96 @@
   </si>
   <si>
     <t>AlbanianFooty</t>
+  </si>
+  <si>
+    <t>JamesHorncastle</t>
+  </si>
+  <si>
+    <t>Marcotti</t>
+  </si>
+  <si>
+    <t>GuillemBalague</t>
+  </si>
+  <si>
+    <t>Honigstein</t>
+  </si>
+  <si>
+    <t>PhilippeAuclair</t>
+  </si>
+  <si>
+    <t>jonawils</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>RorySmithTimes</t>
+  </si>
+  <si>
+    <t>andybrassel</t>
+  </si>
+  <si>
+    <t>henrywinter</t>
+  </si>
+  <si>
+    <t>sidlowe</t>
+  </si>
+  <si>
+    <t>GrantWahl</t>
+  </si>
+  <si>
+    <t>Hegs_com</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>benshave</t>
+  </si>
+  <si>
+    <t>inbedwimaradona</t>
+  </si>
+  <si>
+    <t>sportingintel</t>
+  </si>
+  <si>
+    <t>101greatgoals</t>
+  </si>
+  <si>
+    <t>thesoccerdon</t>
+  </si>
+  <si>
+    <t>MLS</t>
+  </si>
+  <si>
+    <t>OptaJoe</t>
+  </si>
+  <si>
+    <t>WhoScored</t>
+  </si>
+  <si>
+    <t>Squawka</t>
+  </si>
+  <si>
+    <t>MiguelDelaney</t>
+  </si>
+  <si>
+    <t>DTGuardian</t>
+  </si>
+  <si>
+    <t>Cyngeticus</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>TheBig_Sam</t>
+  </si>
+  <si>
+    <t>SwissRamble</t>
   </si>
 </sst>
 </file>
@@ -557,21 +647,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78486CC4-C569-4277-A29C-7E684115B6C9}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -582,37 +676,73 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -620,7 +750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -639,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -647,7 +777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -655,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -663,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -671,7 +801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,7 +809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -687,7 +817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -698,7 +828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -706,7 +836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -714,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -722,7 +852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -733,7 +863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -744,7 +874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -752,7 +882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -779,6 +909,64 @@
       </c>
       <c r="I24" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
